--- a/productos.xlsx
+++ b/productos.xlsx
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
